--- a/116/116.xlsx
+++ b/116/116.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">Q 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q 04</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -353,7 +356,7 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -384,7 +387,9 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -410,7 +415,9 @@
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -438,7 +445,10 @@
         <f aca="false">(8/8)*10</f>
         <v>10</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="n">
+        <f aca="false">(1/3)*10</f>
+        <v>3.33333333333333</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -466,7 +476,10 @@
         <f aca="false">(8/8)*10</f>
         <v>10</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="n">
+        <f aca="false">(2/3)*10</f>
+        <v>6.66666666666667</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -494,7 +507,10 @@
         <f aca="false">(8/8)*10</f>
         <v>10</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="n">
+        <f aca="false">(1/3)*10</f>
+        <v>3.33333333333333</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -522,7 +538,10 @@
         <f aca="false">(8/8)*10</f>
         <v>10</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="n">
+        <f aca="false">(2/3)*10</f>
+        <v>6.66666666666667</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -550,7 +569,9 @@
         <f aca="false">(8/8)*10</f>
         <v>10</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="J7" s="0"/>
@@ -568,17 +589,19 @@
       <c r="D8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="J8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -587,7 +610,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -597,22 +620,22 @@
         <v>0</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -648,11 +671,11 @@
       </c>
       <c r="B13" s="14" t="n">
         <f aca="false">SUM(B3:L3)</f>
-        <v>30</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="C13" s="14" t="n">
         <f aca="false">(B13*45)/B9</f>
-        <v>45</v>
+        <v>37.5</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>0</v>
@@ -662,11 +685,11 @@
       </c>
       <c r="F13" s="16" t="n">
         <f aca="false">C13+D13+E13</f>
-        <v>45</v>
+        <v>37.5</v>
       </c>
       <c r="G13" s="17" t="n">
         <f aca="false">((F13-F19)*50)/(F20-F19)+50</f>
-        <v>100</v>
+        <v>95.4545454545454</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -675,11 +698,11 @@
       </c>
       <c r="B14" s="14" t="n">
         <f aca="false">SUM(B4:L4)</f>
-        <v>21</v>
+        <v>27.6666666666667</v>
       </c>
       <c r="C14" s="14" t="n">
         <f aca="false">(B14*45)/B9</f>
-        <v>31.5</v>
+        <v>31.125</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>0</v>
@@ -689,11 +712,11 @@
       </c>
       <c r="F14" s="16" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>31.5</v>
+        <v>31.125</v>
       </c>
       <c r="G14" s="17" t="n">
         <f aca="false">((F14-F19)*50)/(F20-F19)+50</f>
-        <v>85</v>
+        <v>87.7272727272727</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -702,11 +725,11 @@
       </c>
       <c r="B15" s="14" t="n">
         <f aca="false">SUM(B5:L5)</f>
-        <v>21</v>
+        <v>24.3333333333333</v>
       </c>
       <c r="C15" s="14" t="n">
         <f aca="false">(B15*45)/B9</f>
-        <v>31.5</v>
+        <v>27.375</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>0</v>
@@ -716,11 +739,11 @@
       </c>
       <c r="F15" s="16" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>31.5</v>
+        <v>27.375</v>
       </c>
       <c r="G15" s="17" t="n">
         <f aca="false">((F15-F19)*50)/(F20-F19)+50</f>
-        <v>85</v>
+        <v>83.1818181818182</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -729,11 +752,11 @@
       </c>
       <c r="B16" s="14" t="n">
         <f aca="false">SUM(B6:L6)</f>
-        <v>30</v>
+        <v>36.6666666666667</v>
       </c>
       <c r="C16" s="14" t="n">
         <f aca="false">(B16*45)/B9</f>
-        <v>45</v>
+        <v>41.25</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>0</v>
@@ -743,7 +766,7 @@
       </c>
       <c r="F16" s="16" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>45</v>
+        <v>41.25</v>
       </c>
       <c r="G16" s="17" t="n">
         <f aca="false">((F16-F19)*50)/(F20-F19)+50</f>
@@ -760,7 +783,7 @@
       </c>
       <c r="C17" s="14" t="n">
         <f aca="false">(B17*45)/B9</f>
-        <v>41.25</v>
+        <v>30.9375</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>0</v>
@@ -770,11 +793,11 @@
       </c>
       <c r="F17" s="16" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>41.25</v>
+        <v>30.9375</v>
       </c>
       <c r="G17" s="17" t="n">
         <f aca="false">((F17-F19)*50)/(F20-F19)+50</f>
-        <v>95.8333333333333</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -806,7 +829,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E19" s="18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" s="19" t="n">
         <f aca="false">MIN(F12:F18)</f>
@@ -815,11 +838,11 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E20" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F20" s="19" t="n">
         <f aca="false">MAX(F12:F18)</f>
-        <v>45</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/116/116.xlsx
+++ b/116/116.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">Q 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q 05</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -356,7 +359,7 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -390,7 +393,9 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -418,7 +423,9 @@
       <c r="E2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -449,7 +456,10 @@
         <f aca="false">(1/3)*10</f>
         <v>3.33333333333333</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="n">
+        <f aca="false">(4/5)*10</f>
+        <v>8</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -480,7 +490,10 @@
         <f aca="false">(2/3)*10</f>
         <v>6.66666666666667</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="n">
+        <f aca="false">(4/5)*10</f>
+        <v>8</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -511,7 +524,10 @@
         <f aca="false">(1/3)*10</f>
         <v>3.33333333333333</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="n">
+        <f aca="false">(4/5)*10</f>
+        <v>8</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -542,7 +558,10 @@
         <f aca="false">(2/3)*10</f>
         <v>6.66666666666667</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="n">
+        <f aca="false">(4/5)*10</f>
+        <v>8</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -572,7 +591,10 @@
       <c r="E7" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6" t="n">
+        <f aca="false">(3/5)*10</f>
+        <v>6</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="J7" s="0"/>
     </row>
@@ -590,18 +612,22 @@
         <v>0</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6"/>
+        <f aca="false">(2/3)*10</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <f aca="false">(3/5)*10</f>
+        <v>6</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="J8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -610,7 +636,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -620,22 +646,22 @@
         <v>0</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,11 +697,11 @@
       </c>
       <c r="B13" s="14" t="n">
         <f aca="false">SUM(B3:L3)</f>
-        <v>33.3333333333333</v>
+        <v>41.3333333333333</v>
       </c>
       <c r="C13" s="14" t="n">
         <f aca="false">(B13*45)/B9</f>
-        <v>37.5</v>
+        <v>37.2</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>0</v>
@@ -685,11 +711,11 @@
       </c>
       <c r="F13" s="16" t="n">
         <f aca="false">C13+D13+E13</f>
-        <v>37.5</v>
+        <v>37.2</v>
       </c>
       <c r="G13" s="17" t="n">
         <f aca="false">((F13-F19)*50)/(F20-F19)+50</f>
-        <v>95.4545454545454</v>
+        <v>96.2686567164179</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -698,11 +724,11 @@
       </c>
       <c r="B14" s="14" t="n">
         <f aca="false">SUM(B4:L4)</f>
-        <v>27.6666666666667</v>
+        <v>35.6666666666667</v>
       </c>
       <c r="C14" s="14" t="n">
         <f aca="false">(B14*45)/B9</f>
-        <v>31.125</v>
+        <v>32.1</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>0</v>
@@ -712,11 +738,11 @@
       </c>
       <c r="F14" s="16" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>31.125</v>
+        <v>32.1</v>
       </c>
       <c r="G14" s="17" t="n">
         <f aca="false">((F14-F19)*50)/(F20-F19)+50</f>
-        <v>87.7272727272727</v>
+        <v>89.9253731343284</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -725,11 +751,11 @@
       </c>
       <c r="B15" s="14" t="n">
         <f aca="false">SUM(B5:L5)</f>
-        <v>24.3333333333333</v>
+        <v>32.3333333333333</v>
       </c>
       <c r="C15" s="14" t="n">
         <f aca="false">(B15*45)/B9</f>
-        <v>27.375</v>
+        <v>29.1</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>0</v>
@@ -739,11 +765,11 @@
       </c>
       <c r="F15" s="16" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>27.375</v>
+        <v>29.1</v>
       </c>
       <c r="G15" s="17" t="n">
         <f aca="false">((F15-F19)*50)/(F20-F19)+50</f>
-        <v>83.1818181818182</v>
+        <v>86.1940298507463</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -752,11 +778,11 @@
       </c>
       <c r="B16" s="14" t="n">
         <f aca="false">SUM(B6:L6)</f>
-        <v>36.6666666666667</v>
+        <v>44.6666666666667</v>
       </c>
       <c r="C16" s="14" t="n">
         <f aca="false">(B16*45)/B9</f>
-        <v>41.25</v>
+        <v>40.2</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>0</v>
@@ -766,7 +792,7 @@
       </c>
       <c r="F16" s="16" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>41.25</v>
+        <v>40.2</v>
       </c>
       <c r="G16" s="17" t="n">
         <f aca="false">((F16-F19)*50)/(F20-F19)+50</f>
@@ -779,11 +805,11 @@
       </c>
       <c r="B17" s="14" t="n">
         <f aca="false">SUM(B7:M7)</f>
-        <v>27.5</v>
+        <v>33.5</v>
       </c>
       <c r="C17" s="14" t="n">
         <f aca="false">(B17*45)/B9</f>
-        <v>30.9375</v>
+        <v>30.15</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>0</v>
@@ -793,7 +819,7 @@
       </c>
       <c r="F17" s="16" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>30.9375</v>
+        <v>30.15</v>
       </c>
       <c r="G17" s="17" t="n">
         <f aca="false">((F17-F19)*50)/(F20-F19)+50</f>
@@ -806,11 +832,11 @@
       </c>
       <c r="B18" s="14" t="n">
         <f aca="false">SUM(B8:M8)</f>
-        <v>0</v>
+        <v>12.6666666666667</v>
       </c>
       <c r="C18" s="14" t="n">
         <f aca="false">(B18*45)/B9</f>
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>0</v>
@@ -820,16 +846,16 @@
       </c>
       <c r="F18" s="16" t="n">
         <f aca="false">C18+D18+E18</f>
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="G18" s="17" t="n">
         <f aca="false">((F18-F19)*50)/(F20-F19)+50</f>
-        <v>50</v>
+        <v>64.1791044776119</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E19" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F19" s="19" t="n">
         <f aca="false">MIN(F12:F18)</f>
@@ -838,11 +864,11 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E20" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" s="19" t="n">
         <f aca="false">MAX(F12:F18)</f>
-        <v>41.25</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/116/116.xlsx
+++ b/116/116.xlsx
@@ -359,7 +359,7 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/116/116.xlsx
+++ b/116/116.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">Q 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q 06</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -359,7 +362,7 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -396,7 +399,9 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -426,7 +431,9 @@
       <c r="F2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -460,7 +467,10 @@
         <f aca="false">(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="n">
+        <f aca="false">(1/5)*10</f>
+        <v>2</v>
+      </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -494,7 +504,9 @@
         <f aca="false">(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -528,7 +540,10 @@
         <f aca="false">(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="n">
+        <f aca="false">(2/5)*10</f>
+        <v>4</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -562,7 +577,10 @@
         <f aca="false">(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="n">
+        <f aca="false">(5/5)*10</f>
+        <v>10</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -595,7 +613,9 @@
         <f aca="false">(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="J7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -619,15 +639,18 @@
         <f aca="false">(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="6" t="n">
+        <f aca="false">(4/5)*10</f>
+        <v>8</v>
+      </c>
       <c r="J8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="8" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -636,7 +659,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -646,22 +669,22 @@
         <v>0</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -697,11 +720,11 @@
       </c>
       <c r="B13" s="14" t="n">
         <f aca="false">SUM(B3:L3)</f>
-        <v>41.3333333333333</v>
+        <v>43.3333333333333</v>
       </c>
       <c r="C13" s="14" t="n">
         <f aca="false">(B13*45)/B9</f>
-        <v>37.2</v>
+        <v>32.5</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>0</v>
@@ -711,11 +734,11 @@
       </c>
       <c r="F13" s="16" t="n">
         <f aca="false">C13+D13+E13</f>
-        <v>37.2</v>
+        <v>32.5</v>
       </c>
       <c r="G13" s="17" t="n">
         <f aca="false">((F13-F19)*50)/(F20-F19)+50</f>
-        <v>96.2686567164179</v>
+        <v>89.6341463414634</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -728,7 +751,7 @@
       </c>
       <c r="C14" s="14" t="n">
         <f aca="false">(B14*45)/B9</f>
-        <v>32.1</v>
+        <v>26.75</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>0</v>
@@ -738,11 +761,11 @@
       </c>
       <c r="F14" s="16" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>32.1</v>
+        <v>26.75</v>
       </c>
       <c r="G14" s="17" t="n">
         <f aca="false">((F14-F19)*50)/(F20-F19)+50</f>
-        <v>89.9253731343284</v>
+        <v>82.6219512195122</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -751,11 +774,11 @@
       </c>
       <c r="B15" s="14" t="n">
         <f aca="false">SUM(B5:L5)</f>
-        <v>32.3333333333333</v>
+        <v>36.3333333333333</v>
       </c>
       <c r="C15" s="14" t="n">
         <f aca="false">(B15*45)/B9</f>
-        <v>29.1</v>
+        <v>27.25</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>0</v>
@@ -765,11 +788,11 @@
       </c>
       <c r="F15" s="16" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>29.1</v>
+        <v>27.25</v>
       </c>
       <c r="G15" s="17" t="n">
         <f aca="false">((F15-F19)*50)/(F20-F19)+50</f>
-        <v>86.1940298507463</v>
+        <v>83.2317073170731</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -778,11 +801,11 @@
       </c>
       <c r="B16" s="14" t="n">
         <f aca="false">SUM(B6:L6)</f>
-        <v>44.6666666666667</v>
+        <v>54.6666666666667</v>
       </c>
       <c r="C16" s="14" t="n">
         <f aca="false">(B16*45)/B9</f>
-        <v>40.2</v>
+        <v>41</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>0</v>
@@ -792,7 +815,7 @@
       </c>
       <c r="F16" s="16" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>40.2</v>
+        <v>41</v>
       </c>
       <c r="G16" s="17" t="n">
         <f aca="false">((F16-F19)*50)/(F20-F19)+50</f>
@@ -809,7 +832,7 @@
       </c>
       <c r="C17" s="14" t="n">
         <f aca="false">(B17*45)/B9</f>
-        <v>30.15</v>
+        <v>25.125</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>0</v>
@@ -819,11 +842,11 @@
       </c>
       <c r="F17" s="16" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>30.15</v>
+        <v>25.125</v>
       </c>
       <c r="G17" s="17" t="n">
         <f aca="false">((F17-F19)*50)/(F20-F19)+50</f>
-        <v>87.5</v>
+        <v>80.640243902439</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -832,11 +855,11 @@
       </c>
       <c r="B18" s="14" t="n">
         <f aca="false">SUM(B8:M8)</f>
-        <v>12.6666666666667</v>
+        <v>20.6666666666667</v>
       </c>
       <c r="C18" s="14" t="n">
         <f aca="false">(B18*45)/B9</f>
-        <v>11.4</v>
+        <v>15.5</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>0</v>
@@ -846,16 +869,16 @@
       </c>
       <c r="F18" s="16" t="n">
         <f aca="false">C18+D18+E18</f>
-        <v>11.4</v>
+        <v>15.5</v>
       </c>
       <c r="G18" s="17" t="n">
         <f aca="false">((F18-F19)*50)/(F20-F19)+50</f>
-        <v>64.1791044776119</v>
+        <v>68.9024390243903</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E19" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" s="19" t="n">
         <f aca="false">MIN(F12:F18)</f>
@@ -864,11 +887,11 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E20" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" s="19" t="n">
         <f aca="false">MAX(F12:F18)</f>
-        <v>40.2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/116/116.xlsx
+++ b/116/116.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">Q 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q 07</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -362,7 +365,7 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -402,7 +405,9 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -434,7 +439,9 @@
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -471,7 +478,10 @@
         <f aca="false">(1/5)*10</f>
         <v>2</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4" t="n">
+        <f aca="false">(5/7)*10</f>
+        <v>7.14285714285714</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -507,7 +517,10 @@
       <c r="G4" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4" t="n">
+        <f aca="false">(5/7)*10</f>
+        <v>7.14285714285714</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -544,7 +557,10 @@
         <f aca="false">(2/5)*10</f>
         <v>4</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4" t="n">
+        <f aca="false">(5/7)*10</f>
+        <v>7.14285714285714</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -581,7 +597,10 @@
         <f aca="false">(5/5)*10</f>
         <v>10</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4" t="n">
+        <f aca="false">(5/7)*10</f>
+        <v>7.14285714285714</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -616,6 +635,9 @@
       <c r="G7" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H7" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="J7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -643,14 +665,18 @@
         <f aca="false">(4/5)*10</f>
         <v>8</v>
       </c>
+      <c r="H8" s="4" t="n">
+        <f aca="false">(4/7)*10</f>
+        <v>5.71428571428571</v>
+      </c>
       <c r="J8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="8" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -659,7 +685,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -669,22 +695,22 @@
         <v>0</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -720,11 +746,11 @@
       </c>
       <c r="B13" s="14" t="n">
         <f aca="false">SUM(B3:L3)</f>
-        <v>43.3333333333333</v>
+        <v>50.4761904761905</v>
       </c>
       <c r="C13" s="14" t="n">
         <f aca="false">(B13*45)/B9</f>
-        <v>32.5</v>
+        <v>32.4489795918367</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>0</v>
@@ -734,11 +760,11 @@
       </c>
       <c r="F13" s="16" t="n">
         <f aca="false">C13+D13+E13</f>
-        <v>32.5</v>
+        <v>32.4489795918367</v>
       </c>
       <c r="G13" s="17" t="n">
         <f aca="false">((F13-F19)*50)/(F20-F19)+50</f>
-        <v>89.6341463414634</v>
+        <v>90.8320493066256</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -747,11 +773,11 @@
       </c>
       <c r="B14" s="14" t="n">
         <f aca="false">SUM(B4:L4)</f>
-        <v>35.6666666666667</v>
+        <v>42.8095238095238</v>
       </c>
       <c r="C14" s="14" t="n">
         <f aca="false">(B14*45)/B9</f>
-        <v>26.75</v>
+        <v>27.5204081632653</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>0</v>
@@ -761,11 +787,11 @@
       </c>
       <c r="F14" s="16" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>26.75</v>
+        <v>27.5204081632653</v>
       </c>
       <c r="G14" s="17" t="n">
         <f aca="false">((F14-F19)*50)/(F20-F19)+50</f>
-        <v>82.6219512195122</v>
+        <v>84.6302003081664</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -774,11 +800,11 @@
       </c>
       <c r="B15" s="14" t="n">
         <f aca="false">SUM(B5:L5)</f>
-        <v>36.3333333333333</v>
+        <v>43.4761904761905</v>
       </c>
       <c r="C15" s="14" t="n">
         <f aca="false">(B15*45)/B9</f>
-        <v>27.25</v>
+        <v>27.9489795918367</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>0</v>
@@ -788,11 +814,11 @@
       </c>
       <c r="F15" s="16" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>27.25</v>
+        <v>27.9489795918367</v>
       </c>
       <c r="G15" s="17" t="n">
         <f aca="false">((F15-F19)*50)/(F20-F19)+50</f>
-        <v>83.2317073170731</v>
+        <v>85.1694915254237</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -801,11 +827,11 @@
       </c>
       <c r="B16" s="14" t="n">
         <f aca="false">SUM(B6:L6)</f>
-        <v>54.6666666666667</v>
+        <v>61.8095238095238</v>
       </c>
       <c r="C16" s="14" t="n">
         <f aca="false">(B16*45)/B9</f>
-        <v>41</v>
+        <v>39.734693877551</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>0</v>
@@ -815,7 +841,7 @@
       </c>
       <c r="F16" s="16" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>41</v>
+        <v>39.734693877551</v>
       </c>
       <c r="G16" s="17" t="n">
         <f aca="false">((F16-F19)*50)/(F20-F19)+50</f>
@@ -832,7 +858,7 @@
       </c>
       <c r="C17" s="14" t="n">
         <f aca="false">(B17*45)/B9</f>
-        <v>25.125</v>
+        <v>21.5357142857143</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>0</v>
@@ -842,11 +868,11 @@
       </c>
       <c r="F17" s="16" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>25.125</v>
+        <v>21.5357142857143</v>
       </c>
       <c r="G17" s="17" t="n">
         <f aca="false">((F17-F19)*50)/(F20-F19)+50</f>
-        <v>80.640243902439</v>
+        <v>77.0993836671803</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -855,11 +881,11 @@
       </c>
       <c r="B18" s="14" t="n">
         <f aca="false">SUM(B8:M8)</f>
-        <v>20.6666666666667</v>
+        <v>26.3809523809524</v>
       </c>
       <c r="C18" s="14" t="n">
         <f aca="false">(B18*45)/B9</f>
-        <v>15.5</v>
+        <v>16.9591836734694</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>0</v>
@@ -869,16 +895,16 @@
       </c>
       <c r="F18" s="16" t="n">
         <f aca="false">C18+D18+E18</f>
-        <v>15.5</v>
+        <v>16.9591836734694</v>
       </c>
       <c r="G18" s="17" t="n">
         <f aca="false">((F18-F19)*50)/(F20-F19)+50</f>
-        <v>68.9024390243903</v>
+        <v>71.3405238828968</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E19" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="19" t="n">
         <f aca="false">MIN(F12:F18)</f>
@@ -887,11 +913,11 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E20" s="18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="19" t="n">
         <f aca="false">MAX(F12:F18)</f>
-        <v>41</v>
+        <v>39.734693877551</v>
       </c>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/116/116.xlsx
+++ b/116/116.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MFT\004-scores\116\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC795EF-DB98-4A78-BAB2-E3D43E7D02E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33903DE9-68BE-40C1-8E7B-2E639D2F7403}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>No.</t>
   </si>
@@ -85,6 +84,9 @@
   </si>
   <si>
     <t>Q 08</t>
+  </si>
+  <si>
+    <t>Q 09</t>
   </si>
 </sst>
 </file>
@@ -94,7 +96,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\٫00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -105,6 +107,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFD7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -180,9 +188,6 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -217,6 +222,9 @@
     <xf numFmtId="4" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,7 +610,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,575 +622,595 @@
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="11.140625" customWidth="1"/>
     <col min="7" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" customWidth="1"/>
     <col min="12" max="15" width="9.5703125" customWidth="1"/>
     <col min="16" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <f>(4/4)*10</f>
         <v>10</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <f>(5/5)*10</f>
         <v>10</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f>(8/8)*10</f>
         <v>10</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <f>(1/3)*10</f>
         <v>3.333333333333333</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <f>(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <f>(1/5)*10</f>
         <v>2</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <f>(5/7)*10</f>
         <v>7.1428571428571432</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <f>(2/3)*10</f>
         <v>6.6666666666666661</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="J3" s="4">
+        <f>(16/20)*10</f>
+        <v>8</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>4</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <f>(2/4)*10</f>
         <v>5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <f>(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <f>(8/8)*10</f>
         <v>10</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <f>(2/3)*10</f>
         <v>6.6666666666666661</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <f>(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
         <f>(5/7)*10</f>
         <v>7.1428571428571432</v>
       </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>6</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <f>(2/4)*10</f>
         <v>5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <f>(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f>(8/8)*10</f>
         <v>10</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <f>(1/3)*10</f>
         <v>3.333333333333333</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <f>(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <f>(2/5)*10</f>
         <v>4</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <f>(5/7)*10</f>
         <v>7.1428571428571432</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <f>(1/3)*10</f>
         <v>3.333333333333333</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="J5" s="4">
+        <f>(7/20)*10</f>
+        <v>3.5</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>9</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <f>(4/4)*10</f>
         <v>10</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <f>(5/5)*10</f>
         <v>10</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f>(8/8)*10</f>
         <v>10</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <f>(2/3)*10</f>
         <v>6.6666666666666661</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <f>(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <f>(5/5)*10</f>
         <v>10</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <f>(5/7)*10</f>
         <v>7.1428571428571432</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <f>(2/3)*10</f>
         <v>6.6666666666666661</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="J6" s="4">
+        <f>(16/20)*10</f>
+        <v>8</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>11</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <f>(3/4)*10</f>
         <v>7.5</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <f>(5/5)*10</f>
         <v>10</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f>(8/8)*10</f>
         <v>10</v>
       </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
         <f>(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7"/>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>12</v>
       </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
         <f>(2/3)*10</f>
         <v>6.6666666666666661</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <f>(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <f>(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <f>(4/7)*10</f>
         <v>5.7142857142857135</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <f>(2/3)*10</f>
         <v>6.6666666666666661</v>
       </c>
-      <c r="J8"/>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
-        <v>80</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="B9" s="8">
+        <v>90</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>1</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <f>SUM(B2:L2)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <f>(B12*45)/B9</f>
         <v>0</v>
       </c>
-      <c r="D12" s="15">
-        <v>0</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0</v>
-      </c>
-      <c r="F12" s="16">
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
         <f t="shared" ref="F12:F18" si="0">C12+D12+E12</f>
         <v>0</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <f>((F12-F19)*50)/(F20-F19)+50</f>
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>3</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <f>SUM(B3:L3)</f>
-        <v>57.142857142857146</v>
-      </c>
-      <c r="C13" s="14">
+        <v>65.142857142857139</v>
+      </c>
+      <c r="C13" s="13">
         <f>(B13*45)/B9</f>
-        <v>32.142857142857146</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0</v>
-      </c>
-      <c r="F13" s="16">
+        <v>32.571428571428569</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
         <f t="shared" si="0"/>
-        <v>32.142857142857146</v>
-      </c>
-      <c r="G13" s="17">
+        <v>32.571428571428569</v>
+      </c>
+      <c r="G13" s="16">
         <f>((F13-F19)*50)/(F20-F19)+50</f>
-        <v>91.724617524339365</v>
+        <v>92.59028642590286</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>4</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <f>SUM(B4:L4)</f>
         <v>42.80952380952381</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <f>(B14*45)/B9</f>
-        <v>24.080357142857146</v>
-      </c>
-      <c r="D14" s="15">
-        <v>0</v>
-      </c>
-      <c r="E14" s="15">
-        <v>0</v>
-      </c>
-      <c r="F14" s="16">
+        <v>21.404761904761905</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
         <f t="shared" si="0"/>
-        <v>24.080357142857146</v>
-      </c>
-      <c r="G14" s="17">
+        <v>21.404761904761905</v>
+      </c>
+      <c r="G14" s="16">
         <f>((F14-F19)*50)/(F20-F19)+50</f>
-        <v>81.258692628650905</v>
+        <v>77.988792029887918</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>6</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <f>SUM(B5:L5)</f>
-        <v>46.80952380952381</v>
-      </c>
-      <c r="C15" s="14">
+        <v>50.30952380952381</v>
+      </c>
+      <c r="C15" s="13">
         <f>(B15*45)/B9</f>
-        <v>26.330357142857146</v>
-      </c>
-      <c r="D15" s="15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="16">
+        <v>25.154761904761905</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
         <f t="shared" si="0"/>
-        <v>26.330357142857146</v>
-      </c>
-      <c r="G15" s="17">
+        <v>25.154761904761905</v>
+      </c>
+      <c r="G15" s="16">
         <f>((F15-F19)*50)/(F20-F19)+50</f>
-        <v>84.179415855354662</v>
+        <v>82.892278953922784</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>9</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <f>SUM(B6:L6)</f>
-        <v>68.476190476190482</v>
-      </c>
-      <c r="C16" s="14">
+        <v>76.476190476190482</v>
+      </c>
+      <c r="C16" s="13">
         <f>(B16*45)/B9</f>
-        <v>38.517857142857146</v>
-      </c>
-      <c r="D16" s="15">
-        <v>0</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0</v>
-      </c>
-      <c r="F16" s="16">
+        <v>38.238095238095241</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
         <f t="shared" si="0"/>
-        <v>38.517857142857146</v>
-      </c>
-      <c r="G16" s="17">
+        <v>38.238095238095241</v>
+      </c>
+      <c r="G16" s="16">
         <f>((F16-F19)*50)/(F20-F19)+50</f>
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>11</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <f>SUM(B7:M7)</f>
         <v>33.5</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <f>(B17*45)/B9</f>
-        <v>18.84375</v>
-      </c>
-      <c r="D17" s="15">
-        <v>0</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0</v>
-      </c>
-      <c r="F17" s="16">
+        <v>16.75</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15">
         <f t="shared" si="0"/>
-        <v>18.84375</v>
-      </c>
-      <c r="G17" s="17">
+        <v>16.75</v>
+      </c>
+      <c r="G17" s="16">
         <f>((F17-F19)*50)/(F20-F19)+50</f>
-        <v>74.461057023643946</v>
+        <v>71.902241594022414</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>12</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <f>SUM(B8:M8)</f>
         <v>33.047619047619044</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <f>(B18*45)/B9</f>
-        <v>18.589285714285712</v>
-      </c>
-      <c r="D18" s="15">
-        <v>0</v>
-      </c>
-      <c r="E18" s="15">
-        <v>0</v>
-      </c>
-      <c r="F18" s="16">
+        <v>16.523809523809522</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15">
         <f t="shared" si="0"/>
-        <v>18.589285714285712</v>
-      </c>
-      <c r="G18" s="17">
+        <v>16.523809523809522</v>
+      </c>
+      <c r="G18" s="16">
         <f>((F18-F19)*50)/(F20-F19)+50</f>
-        <v>74.130737134909594</v>
+        <v>71.60647571606475</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="18">
         <f>MIN(F12:F18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="18">
         <f>MAX(F12:F18)</f>
-        <v>38.517857142857146</v>
+        <v>38.238095238095241</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A10:C10"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/116/116.xlsx
+++ b/116/116.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MFT\004-scores\116\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33903DE9-68BE-40C1-8E7B-2E639D2F7403}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559E8D2A-414C-4139-A76C-7A9828FF3ABA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>No.</t>
   </si>
@@ -87,6 +87,21 @@
   </si>
   <si>
     <t>Q 09</t>
+  </si>
+  <si>
+    <t>H 02</t>
+  </si>
+  <si>
+    <t>H 04</t>
+  </si>
+  <si>
+    <t>H 06</t>
+  </si>
+  <si>
+    <t>H 10</t>
+  </si>
+  <si>
+    <t>H 11</t>
   </si>
 </sst>
 </file>
@@ -118,7 +133,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +188,12 @@
         <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -186,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -223,6 +244,12 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -607,21 +634,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="9" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.5703125" customWidth="1"/>
     <col min="10" max="10" width="8.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" customWidth="1"/>
     <col min="12" max="15" width="9.5703125" customWidth="1"/>
@@ -659,99 +687,135 @@
       <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4">
-        <v>0</v>
+        <f>(4/4)*10</f>
+        <v>10</v>
       </c>
       <c r="C2" s="4">
-        <v>0</v>
+        <f>(5/5)*10</f>
+        <v>10</v>
       </c>
       <c r="D2" s="4">
-        <v>0</v>
+        <f>(8/8)*10</f>
+        <v>10</v>
       </c>
       <c r="E2" s="4">
-        <v>0</v>
+        <f>(1/3)*10</f>
+        <v>3.333333333333333</v>
       </c>
       <c r="F2" s="4">
-        <v>0</v>
+        <f>(4/5)*10</f>
+        <v>8</v>
       </c>
       <c r="G2" s="4">
-        <v>0</v>
+        <f>(1/5)*10</f>
+        <v>2</v>
       </c>
       <c r="H2" s="4">
-        <v>0</v>
+        <f>(5/7)*10</f>
+        <v>7.1428571428571432</v>
       </c>
       <c r="I2" s="4">
-        <v>0</v>
+        <f>(2/3)*10</f>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+        <f>(16/20)*10</f>
+        <v>8</v>
+      </c>
+      <c r="K2" s="20">
+        <v>8</v>
+      </c>
+      <c r="L2" s="4">
+        <v>5</v>
+      </c>
+      <c r="M2" s="21">
+        <v>5</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4">
-        <f>(4/4)*10</f>
-        <v>10</v>
+        <f>(2/4)*10</f>
+        <v>5</v>
       </c>
       <c r="C3" s="4">
-        <f>(5/5)*10</f>
-        <v>10</v>
+        <f>(3/5)*10</f>
+        <v>6</v>
       </c>
       <c r="D3" s="4">
         <f>(8/8)*10</f>
         <v>10</v>
       </c>
       <c r="E3" s="4">
-        <f>(1/3)*10</f>
-        <v>3.333333333333333</v>
+        <f>(2/3)*10</f>
+        <v>6.6666666666666661</v>
       </c>
       <c r="F3" s="4">
         <f>(4/5)*10</f>
         <v>8</v>
       </c>
       <c r="G3" s="4">
-        <f>(1/5)*10</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4">
         <f>(5/7)*10</f>
         <v>7.1428571428571432</v>
       </c>
       <c r="I3" s="4">
-        <f>(2/3)*10</f>
-        <v>6.6666666666666661</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4">
-        <f>(16/20)*10</f>
-        <v>8</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4">
         <f>(2/4)*10</f>
@@ -766,85 +830,108 @@
         <v>10</v>
       </c>
       <c r="E4" s="4">
-        <f>(2/3)*10</f>
-        <v>6.6666666666666661</v>
+        <f>(1/3)*10</f>
+        <v>3.333333333333333</v>
       </c>
       <c r="F4" s="4">
         <f>(4/5)*10</f>
         <v>8</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <f>(2/5)*10</f>
+        <v>4</v>
       </c>
       <c r="H4" s="4">
         <f>(5/7)*10</f>
         <v>7.1428571428571432</v>
       </c>
       <c r="I4" s="4">
-        <v>0</v>
+        <f>(1/3)*10</f>
+        <v>3.333333333333333</v>
       </c>
       <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+        <f>(7/20)*10</f>
+        <v>3.5</v>
+      </c>
+      <c r="K4" s="20">
+        <v>8</v>
+      </c>
+      <c r="L4" s="20">
+        <v>8</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4">
-        <f>(2/4)*10</f>
-        <v>5</v>
+        <f>(4/4)*10</f>
+        <v>10</v>
       </c>
       <c r="C5" s="4">
-        <f>(3/5)*10</f>
-        <v>6</v>
+        <f>(5/5)*10</f>
+        <v>10</v>
       </c>
       <c r="D5" s="4">
         <f>(8/8)*10</f>
         <v>10</v>
       </c>
       <c r="E5" s="4">
-        <f>(1/3)*10</f>
-        <v>3.333333333333333</v>
+        <f>(2/3)*10</f>
+        <v>6.6666666666666661</v>
       </c>
       <c r="F5" s="4">
         <f>(4/5)*10</f>
         <v>8</v>
       </c>
       <c r="G5" s="4">
-        <f>(2/5)*10</f>
-        <v>4</v>
+        <f>(5/5)*10</f>
+        <v>10</v>
       </c>
       <c r="H5" s="4">
         <f>(5/7)*10</f>
         <v>7.1428571428571432</v>
       </c>
       <c r="I5" s="4">
-        <f>(1/3)*10</f>
-        <v>3.333333333333333</v>
+        <f>(2/3)*10</f>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J5" s="4">
-        <f>(7/20)*10</f>
-        <v>3.5</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+        <f>(16/20)*10</f>
+        <v>8</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>10</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>9</v>
+      <c r="A6" s="5">
+        <v>11</v>
       </c>
       <c r="B6" s="4">
-        <f>(4/4)*10</f>
-        <v>10</v>
+        <f>(3/4)*10</f>
+        <v>7.5</v>
       </c>
       <c r="C6" s="4">
         <f>(5/5)*10</f>
@@ -855,360 +942,317 @@
         <v>10</v>
       </c>
       <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <f>(3/5)*10</f>
+        <v>6</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
         <f>(2/3)*10</f>
         <v>6.6666666666666661</v>
-      </c>
-      <c r="F6" s="4">
-        <f>(4/5)*10</f>
-        <v>8</v>
-      </c>
-      <c r="G6" s="4">
-        <f>(5/5)*10</f>
-        <v>10</v>
-      </c>
-      <c r="H6" s="4">
-        <f>(5/7)*10</f>
-        <v>7.1428571428571432</v>
-      </c>
-      <c r="I6" s="4">
-        <f>(2/3)*10</f>
-        <v>6.6666666666666661</v>
-      </c>
-      <c r="J6" s="4">
-        <f>(16/20)*10</f>
-        <v>8</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4">
-        <f>(3/4)*10</f>
-        <v>7.5</v>
-      </c>
-      <c r="C7" s="4">
-        <f>(5/5)*10</f>
-        <v>10</v>
-      </c>
-      <c r="D7" s="4">
-        <f>(8/8)*10</f>
-        <v>10</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
       </c>
       <c r="F7" s="6">
         <f>(3/5)*10</f>
         <v>6</v>
       </c>
       <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
+        <f>(4/5)*10</f>
+        <v>8</v>
+      </c>
+      <c r="H7" s="4">
+        <f>(4/7)*10</f>
+        <v>5.7142857142857135</v>
       </c>
       <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
         <f>(2/3)*10</f>
         <v>6.6666666666666661</v>
       </c>
-      <c r="F8" s="6">
-        <f>(3/5)*10</f>
-        <v>6</v>
-      </c>
-      <c r="G8" s="6">
-        <f>(4/5)*10</f>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="4">
-        <f>(4/7)*10</f>
-        <v>5.7142857142857135</v>
-      </c>
-      <c r="I8" s="6">
-        <f>(2/3)*10</f>
-        <v>6.6666666666666661</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
+      <c r="B8" s="8">
+        <v>140</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
-        <v>90</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>14</v>
+      <c r="A11" s="10">
+        <v>3</v>
+      </c>
+      <c r="B11" s="13">
+        <f>SUM(B2:O2)</f>
+        <v>83.142857142857139</v>
+      </c>
+      <c r="C11" s="13">
+        <f>(B11*45)/B8</f>
+        <v>26.724489795918366</v>
+      </c>
+      <c r="D11" s="14">
+        <v>6.5</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" ref="F11:F16" si="0">C11+D11+E11</f>
+        <v>33.224489795918366</v>
+      </c>
+      <c r="G11" s="16">
+        <f>((F11-F17)*50)/(F18-F17)+50</f>
+        <v>93.885721218003141</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B12" s="13">
-        <f>SUM(B2:L2)</f>
-        <v>0</v>
+        <f>SUM(B3:O3)</f>
+        <v>42.80952380952381</v>
       </c>
       <c r="C12" s="13">
-        <f>(B12*45)/B9</f>
-        <v>0</v>
+        <f>(B12*45)/B8</f>
+        <v>13.760204081632654</v>
       </c>
       <c r="D12" s="14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E12" s="14">
         <v>0</v>
       </c>
       <c r="F12" s="15">
-        <f t="shared" ref="F12:F18" si="0">C12+D12+E12</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>19.760204081632654</v>
       </c>
       <c r="G12" s="16">
-        <f>((F12-F19)*50)/(F20-F19)+50</f>
-        <v>50</v>
+        <f>((F12-F17)*50)/(F18-F17)+50</f>
+        <v>61.870678151158558</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B13" s="13">
-        <f>SUM(B3:L3)</f>
-        <v>65.142857142857139</v>
+        <f>SUM(B4:O4)</f>
+        <v>66.30952380952381</v>
       </c>
       <c r="C13" s="13">
-        <f>(B13*45)/B9</f>
-        <v>32.571428571428569</v>
+        <f>(B13*45)/B8</f>
+        <v>21.313775510204081</v>
       </c>
       <c r="D13" s="14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E13" s="14">
         <v>0</v>
       </c>
       <c r="F13" s="15">
         <f t="shared" si="0"/>
-        <v>32.571428571428569</v>
+        <v>27.313775510204081</v>
       </c>
       <c r="G13" s="16">
-        <f>((F13-F19)*50)/(F20-F19)+50</f>
-        <v>92.59028642590286</v>
+        <f>((F13-F17)*50)/(F18-F17)+50</f>
+        <v>79.831372073274281</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B14" s="13">
-        <f>SUM(B4:L4)</f>
-        <v>42.80952380952381</v>
+        <f>SUM(B5:O5)</f>
+        <v>86.476190476190482</v>
       </c>
       <c r="C14" s="13">
-        <f>(B14*45)/B9</f>
-        <v>21.404761904761905</v>
+        <f>(B14*45)/B8</f>
+        <v>27.795918367346939</v>
       </c>
       <c r="D14" s="14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E14" s="14">
         <v>0</v>
       </c>
       <c r="F14" s="15">
         <f t="shared" si="0"/>
-        <v>21.404761904761905</v>
+        <v>35.795918367346943</v>
       </c>
       <c r="G14" s="16">
-        <f>((F14-F19)*50)/(F20-F19)+50</f>
-        <v>77.988792029887918</v>
+        <f>((F14-F17)*50)/(F18-F17)+50</f>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B15" s="13">
-        <f>SUM(B5:L5)</f>
-        <v>50.30952380952381</v>
+        <f>SUM(B6:O6)</f>
+        <v>33.5</v>
       </c>
       <c r="C15" s="13">
-        <f>(B15*45)/B9</f>
-        <v>25.154761904761905</v>
+        <f>(B15*45)/B8</f>
+        <v>10.767857142857142</v>
       </c>
       <c r="D15" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E15" s="14">
         <v>0</v>
       </c>
       <c r="F15" s="15">
         <f t="shared" si="0"/>
-        <v>25.154761904761905</v>
+        <v>14.767857142857142</v>
       </c>
       <c r="G15" s="16">
-        <f>((F15-F19)*50)/(F20-F19)+50</f>
-        <v>82.892278953922784</v>
+        <f>((F15-F17)*50)/(F18-F17)+50</f>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B16" s="13">
-        <f>SUM(B6:L6)</f>
-        <v>76.476190476190482</v>
+        <f>SUM(B7:O7)</f>
+        <v>33.047619047619044</v>
       </c>
       <c r="C16" s="13">
-        <f>(B16*45)/B9</f>
-        <v>38.238095238095241</v>
+        <f>(B16*45)/B8</f>
+        <v>10.622448979591836</v>
       </c>
       <c r="D16" s="14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E16" s="14">
         <v>0</v>
       </c>
       <c r="F16" s="15">
         <f t="shared" si="0"/>
-        <v>38.238095238095241</v>
+        <v>17.622448979591837</v>
       </c>
       <c r="G16" s="16">
-        <f>((F16-F19)*50)/(F20-F19)+50</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>11</v>
-      </c>
-      <c r="B17" s="13">
-        <f>SUM(B7:M7)</f>
-        <v>33.5</v>
-      </c>
-      <c r="C17" s="13">
-        <f>(B17*45)/B9</f>
-        <v>16.75</v>
-      </c>
-      <c r="D17" s="14">
-        <v>0</v>
-      </c>
-      <c r="E17" s="14">
-        <v>0</v>
-      </c>
-      <c r="F17" s="15">
-        <f t="shared" si="0"/>
-        <v>16.75</v>
-      </c>
-      <c r="G17" s="16">
-        <f>((F17-F19)*50)/(F20-F19)+50</f>
-        <v>71.902241594022414</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>12</v>
-      </c>
-      <c r="B18" s="13">
-        <f>SUM(B8:M8)</f>
-        <v>33.047619047619044</v>
-      </c>
-      <c r="C18" s="13">
-        <f>(B18*45)/B9</f>
-        <v>16.523809523809522</v>
-      </c>
-      <c r="D18" s="14">
-        <v>0</v>
-      </c>
-      <c r="E18" s="14">
-        <v>0</v>
-      </c>
-      <c r="F18" s="15">
-        <f t="shared" si="0"/>
-        <v>16.523809523809522</v>
-      </c>
-      <c r="G18" s="16">
-        <f>((F18-F19)*50)/(F20-F19)+50</f>
-        <v>71.60647571606475</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="17" t="s">
+        <f>((F16-F17)*50)/(F18-F17)+50</f>
+        <v>56.787577338347688</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="18">
-        <f>MIN(F12:F18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E20" s="17" t="s">
+      <c r="F17" s="18">
+        <f>MIN(F11:F16)</f>
+        <v>14.767857142857142</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="18">
-        <f>MAX(F12:F18)</f>
-        <v>38.238095238095241</v>
+      <c r="F18" s="18">
+        <f>MAX(F11:F16)</f>
+        <v>35.795918367346943</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A9:C9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/116/116.xlsx
+++ b/116/116.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MFT\004-scores\116\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559E8D2A-414C-4139-A76C-7A9828FF3ABA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7394D18A-3FEE-41D9-8389-F1FB2FC49B01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,6 @@
   </sheets>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -207,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -243,13 +238,16 @@
     <xf numFmtId="4" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -637,7 +635,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,7 +700,7 @@
       <c r="O1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="2"/>
+      <c r="P1" s="22"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -744,13 +742,13 @@
         <f>(16/20)*10</f>
         <v>8</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="19">
         <v>8</v>
       </c>
       <c r="L2" s="4">
         <v>5</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="20">
         <v>5</v>
       </c>
       <c r="N2" s="4">
@@ -853,10 +851,10 @@
         <f>(7/20)*10</f>
         <v>3.5</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="19">
         <v>8</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="19">
         <v>8</v>
       </c>
       <c r="M4" s="6">
@@ -1041,11 +1039,11 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
@@ -1075,7 +1073,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="13">
-        <f>SUM(B2:O2)</f>
+        <f t="shared" ref="B11:B16" si="0">SUM(B2:O2)</f>
         <v>83.142857142857139</v>
       </c>
       <c r="C11" s="13">
@@ -1086,15 +1084,15 @@
         <v>6.5</v>
       </c>
       <c r="E11" s="14">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="F11" s="15">
-        <f t="shared" ref="F11:F16" si="0">C11+D11+E11</f>
-        <v>33.224489795918366</v>
+        <f t="shared" ref="F11:F16" si="1">C11+D11+E11</f>
+        <v>60.724489795918366</v>
       </c>
       <c r="G11" s="16">
         <f>((F11-F17)*50)/(F18-F17)+50</f>
-        <v>93.885721218003141</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1102,7 +1100,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="13">
-        <f>SUM(B3:O3)</f>
+        <f t="shared" si="0"/>
         <v>42.80952380952381</v>
       </c>
       <c r="C12" s="13">
@@ -1116,12 +1114,12 @@
         <v>0</v>
       </c>
       <c r="F12" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.760204081632654</v>
       </c>
       <c r="G12" s="16">
         <f>((F12-F17)*50)/(F18-F17)+50</f>
-        <v>61.870678151158558</v>
+        <v>55.431584790452405</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1129,7 +1127,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="13">
-        <f>SUM(B4:O4)</f>
+        <f t="shared" si="0"/>
         <v>66.30952380952381</v>
       </c>
       <c r="C13" s="13">
@@ -1140,15 +1138,15 @@
         <v>6</v>
       </c>
       <c r="E13" s="14">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="0"/>
-        <v>27.313775510204081</v>
+        <f t="shared" si="1"/>
+        <v>54.813775510204081</v>
       </c>
       <c r="G13" s="16">
         <f>((F13-F17)*50)/(F18-F17)+50</f>
-        <v>79.831372073274281</v>
+        <v>93.569247849014715</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1156,7 +1154,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="13">
-        <f>SUM(B5:O5)</f>
+        <f t="shared" si="0"/>
         <v>86.476190476190482</v>
       </c>
       <c r="C14" s="13">
@@ -1170,12 +1168,12 @@
         <v>0</v>
       </c>
       <c r="F14" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35.795918367346943</v>
       </c>
       <c r="G14" s="16">
         <f>((F14-F17)*50)/(F18-F17)+50</f>
-        <v>100</v>
+        <v>72.878157091312801</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1183,7 +1181,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="13">
-        <f>SUM(B6:O6)</f>
+        <f t="shared" si="0"/>
         <v>33.5</v>
       </c>
       <c r="C15" s="13">
@@ -1197,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.767857142857142</v>
       </c>
       <c r="G15" s="16">
@@ -1210,7 +1208,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="13">
-        <f>SUM(B7:O7)</f>
+        <f t="shared" si="0"/>
         <v>33.047619047619044</v>
       </c>
       <c r="C16" s="13">
@@ -1224,12 +1222,12 @@
         <v>0</v>
       </c>
       <c r="F16" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.622448979591837</v>
       </c>
       <c r="G16" s="16">
         <f>((F16-F17)*50)/(F18-F17)+50</f>
-        <v>56.787577338347688</v>
+        <v>53.105745212323065</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.25">
@@ -1247,7 +1245,7 @@
       </c>
       <c r="F18" s="18">
         <f>MAX(F11:F16)</f>
-        <v>35.795918367346943</v>
+        <v>60.724489795918366</v>
       </c>
     </row>
   </sheetData>

--- a/116/116.xlsx
+++ b/116/116.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MFT\004-scores\116\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7394D18A-3FEE-41D9-8389-F1FB2FC49B01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5147958-043C-47F6-95BF-716E45243D9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>No.</t>
   </si>
@@ -97,6 +97,21 @@
   </si>
   <si>
     <t>H 11</t>
+  </si>
+  <si>
+    <t>Web pack scores</t>
+  </si>
+  <si>
+    <t>web 1</t>
+  </si>
+  <si>
+    <t>web 2</t>
+  </si>
+  <si>
+    <t>web 3</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -128,7 +143,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +204,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -202,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -244,12 +277,20 @@
     <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,7 +741,7 @@
       <c r="O1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="22"/>
+      <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -1039,11 +1080,11 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
@@ -1111,15 +1152,15 @@
         <v>6</v>
       </c>
       <c r="E12" s="14">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="F12" s="15">
         <f t="shared" si="1"/>
-        <v>19.760204081632654</v>
+        <v>47.260204081632651</v>
       </c>
       <c r="G12" s="16">
         <f>((F12-F17)*50)/(F18-F17)+50</f>
-        <v>55.431584790452405</v>
+        <v>85.351096308631696</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1230,7 +1271,7 @@
         <v>53.105745212323065</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E17" s="17" t="s">
         <v>15</v>
       </c>
@@ -1239,7 +1280,7 @@
         <v>14.767857142857142</v>
       </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E18" s="17" t="s">
         <v>16</v>
       </c>
@@ -1248,9 +1289,108 @@
         <v>60.724489795918366</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <v>3</v>
+      </c>
+      <c r="B25" s="26">
+        <v>97.91</v>
+      </c>
+      <c r="C25" s="26">
+        <v>73.84</v>
+      </c>
+      <c r="D25" s="26">
+        <v>100</v>
+      </c>
+      <c r="E25" s="26">
+        <f>SUM(B25:D25)/3</f>
+        <v>90.583333333333329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
+        <v>4</v>
+      </c>
+      <c r="B26" s="26">
+        <v>97.07</v>
+      </c>
+      <c r="C26" s="26">
+        <v>92.88</v>
+      </c>
+      <c r="D26" s="26">
+        <v>85.35</v>
+      </c>
+      <c r="E26" s="26">
+        <f t="shared" ref="E26:E28" si="2">SUM(B26:D26)/3</f>
+        <v>91.766666666666652</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="24">
+        <v>6</v>
+      </c>
+      <c r="B27" s="26">
+        <v>92.31</v>
+      </c>
+      <c r="C27" s="26">
+        <v>97.59</v>
+      </c>
+      <c r="D27" s="26">
+        <v>93.57</v>
+      </c>
+      <c r="E27" s="26">
+        <f t="shared" si="2"/>
+        <v>94.490000000000009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="24">
+        <v>9</v>
+      </c>
+      <c r="B28" s="26">
+        <v>100</v>
+      </c>
+      <c r="C28" s="26">
+        <v>96.69</v>
+      </c>
+      <c r="D28" s="26">
+        <v>72.88</v>
+      </c>
+      <c r="E28" s="26">
+        <f t="shared" si="2"/>
+        <v>89.856666666666669</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A23:E23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
